--- a/biology/Médecine/Christian_Guilleminault/Christian_Guilleminault.xlsx
+++ b/biology/Médecine/Christian_Guilleminault/Christian_Guilleminault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Guilleminault, né le 12 août 1938[1],[2] à Marseille en France et mort le 9 juillet 2019 à Stanford en Californie[3], est un neurologue et psychiatre français, professeur de médecine et directeur du Centre du Sommeil de l'université Stanford (Californie, États-Unis). Il est à l'origine de créations de centres du sommeil aux États-Unis[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Guilleminault, né le 12 août 1938, à Marseille en France et mort le 9 juillet 2019 à Stanford en Californie, est un neurologue et psychiatre français, professeur de médecine et directeur du Centre du Sommeil de l'université Stanford (Californie, États-Unis). Il est à l'origine de créations de centres du sommeil aux États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a contribué en très grande partie à mieux expliquer le syndrome d'apnée du sommeil et plus récemment le syndrome de résistance des voies aériennes supérieures.
 Alors qu'il travaillait à la Clinique des troubles du sommeil de l'Université Stanford en 1972, Guilleminault s'intéressa vivement aux rapports  sur le sommeil publiés par le chercheur italien Elio Lugaresi, qui avait rapporté que l'hypertension nocturne était présente chez les patients qui ronflaient. Guilleminault a persuadé les cardiologues John Shroeder et Ara Tilkian de passer des nuits dans le centre de recherche clinique de l'hôpital pour surveiller la pression sanguine artérielle systémique et pulmonaire chez les patients endormis. L'équipe a observé que lorsque les patients s'endormaient et commençaient à ronfler, on notait des pauses prolongées dans leur respiration (apnées) correspondant à des élévations dramatiques de leur tension artérielle au repos, simulant un exercice intense comme si le patient soulevait des poids. Guilleminault a ensuite publié plusieurs articles illustrant les améliorations spectaculaires et l'inversion de l'apnée du sommeil à la suite de trachéotomies. La trachéotomie s'est révélée curative chez ces patients et a démontré une inversion des arythmies cardiaques et des anomalies de la pression artérielle pendant le sommeil; le fait de boucher temporairement ces voies aériennes artificielles reviendrait à capituler les changements de l'apnée du sommeil, établissant davantage la relation causale entre l'apnée du sommeil et les anomalies cardiovasculaires.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des publications de Christian Guilleminault sur le site de Stanford University</t>
         </is>
